--- a/Resources/ControlSheet.xlsx
+++ b/Resources/ControlSheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -36,21 +36,24 @@
     <t xml:space="preserve">TestDataSheetName</t>
   </si>
   <si>
+    <t xml:space="preserve">DataRange</t>
+  </si>
+  <si>
     <t xml:space="preserve">Divide</t>
   </si>
   <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">divide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addition</t>
+  </si>
+  <si>
     <t xml:space="preserve">n</t>
   </si>
   <si>
-    <t xml:space="preserve">divide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
     <t xml:space="preserve">subtraction</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
   </si>
   <si>
     <t xml:space="preserve">multiplication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DataRow</t>
   </si>
   <si>
     <t xml:space="preserve">num1</t>
@@ -73,8 +79,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -142,8 +149,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -164,10 +179,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -180,7 +195,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -193,61 +208,67 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="D5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -266,7 +287,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -277,26 +298,88 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -315,80 +398,98 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>12</v>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" s="0" t="n">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" s="0" t="n">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="n">
         <v>3</v>
       </c>
     </row>
